--- a/data/trans_orig/Q5406-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Habitat-trans_orig.xlsx
@@ -757,19 +757,19 @@
         <v>4671</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11500</v>
+        <v>10620</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03123707133974773</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008044454029938549</v>
+        <v>0.008030707490570456</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0769078521675042</v>
+        <v>0.07101863168815079</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -778,19 +778,19 @@
         <v>4671</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11784</v>
+        <v>11576</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01765829381841573</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004552489050665292</v>
+        <v>0.004526298373030489</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04454841217554985</v>
+        <v>0.04376005097360366</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>9145</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4649</v>
+        <v>4578</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15650</v>
+        <v>15390</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07952837387807231</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0404298775713006</v>
+        <v>0.03980859095848534</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1361002217311244</v>
+        <v>0.1338420765919442</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -828,19 +828,19 @@
         <v>5291</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2003</v>
+        <v>2025</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12235</v>
+        <v>12166</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03537995081169381</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01339615877222656</v>
+        <v>0.01353895481524432</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08182008273592785</v>
+        <v>0.08135884268154706</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -849,19 +849,19 @@
         <v>14435</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7631</v>
+        <v>8509</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21719</v>
+        <v>23367</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0545713022740565</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02884730917765893</v>
+        <v>0.03216779323769938</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08210571109910139</v>
+        <v>0.08833790669473832</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>105844</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>99339</v>
+        <v>99599</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>110340</v>
+        <v>110411</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9204716261219277</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8638997782688752</v>
+        <v>0.8661579234080561</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9595701224286992</v>
+        <v>0.9601914090415148</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>142</v>
@@ -899,19 +899,19 @@
         <v>139573</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>132050</v>
+        <v>130842</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>144833</v>
+        <v>144230</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9333829778485585</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8830726172628454</v>
+        <v>0.874993286955933</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9685588827268053</v>
+        <v>0.9645202655513202</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>251</v>
@@ -920,19 +920,19 @@
         <v>245418</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>236333</v>
+        <v>235540</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>253376</v>
+        <v>252453</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9277704039075277</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.893427612378447</v>
+        <v>0.8904292527698203</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.95785547906169</v>
+        <v>0.9543666553466461</v>
       </c>
     </row>
     <row r="7">
@@ -1037,19 +1037,19 @@
         <v>6108</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14669</v>
+        <v>13688</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03343304679036478</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01247703275274938</v>
+        <v>0.01239831690492656</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08029687146699646</v>
+        <v>0.07492894826616868</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1058,19 +1058,19 @@
         <v>6108</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2137</v>
+        <v>2266</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14470</v>
+        <v>14042</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01858832146754614</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006505450269572254</v>
+        <v>0.006896246686016667</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04403990527804259</v>
+        <v>0.04273736150240474</v>
       </c>
     </row>
     <row r="9">
@@ -1087,19 +1087,19 @@
         <v>10578</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5667</v>
+        <v>5668</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17508</v>
+        <v>17631</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07250916350860385</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03884479370736751</v>
+        <v>0.03885072131524233</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1200106473490095</v>
+        <v>0.1208516770529836</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1108,19 +1108,19 @@
         <v>8291</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3556</v>
+        <v>3460</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16300</v>
+        <v>16210</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04538377815561022</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01946588036232661</v>
+        <v>0.01894086111205853</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08922597460146114</v>
+        <v>0.0887366658042362</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>18</v>
@@ -1129,19 +1129,19 @@
         <v>18869</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11481</v>
+        <v>11691</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28913</v>
+        <v>28546</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05742781642007511</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03494371600294762</v>
+        <v>0.03558081898028208</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08799672728607121</v>
+        <v>0.08688083507769095</v>
       </c>
     </row>
     <row r="10">
@@ -1158,19 +1158,19 @@
         <v>135311</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>128381</v>
+        <v>128258</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>140222</v>
+        <v>140221</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9274908364913962</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8799893526509908</v>
+        <v>0.8791483229470164</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9611552062926325</v>
+        <v>0.9611492786847577</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>157</v>
@@ -1179,19 +1179,19 @@
         <v>168282</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157392</v>
+        <v>158749</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>174340</v>
+        <v>174901</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.921183175054025</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8615747545463642</v>
+        <v>0.868998265342668</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9543474316782918</v>
+        <v>0.9574194200791364</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>292</v>
@@ -1200,19 +1200,19 @@
         <v>303592</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>292719</v>
+        <v>292503</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>311962</v>
+        <v>312557</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9239838621123787</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8908924050085947</v>
+        <v>0.8902359130656505</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9494590084733071</v>
+        <v>0.9512718279660465</v>
       </c>
     </row>
     <row r="11">
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9287</v>
+        <v>9872</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02622485119145328</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08897705056122059</v>
+        <v>0.09458471955953539</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6153</v>
+        <v>7941</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0145803073284565</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04528997988693612</v>
+        <v>0.05845139452364102</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1346,19 +1346,19 @@
         <v>4718</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11639</v>
+        <v>12098</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01963962297760963</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004365239070608646</v>
+        <v>0.004398785406983908</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04845109266204647</v>
+        <v>0.05036181663183438</v>
       </c>
     </row>
     <row r="13">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5999</v>
+        <v>5741</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01753240136607723</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05747516948454866</v>
+        <v>0.05500662280894343</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1396,19 +1396,19 @@
         <v>6654</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2524</v>
+        <v>2298</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13437</v>
+        <v>12458</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04898232335712444</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0185815050521867</v>
+        <v>0.01691358917926823</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09891066838210245</v>
+        <v>0.09170639565706377</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1417,19 +1417,19 @@
         <v>8484</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3630</v>
+        <v>3937</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15496</v>
+        <v>17874</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03531797683002902</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01511024517381637</v>
+        <v>0.01638781509344042</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06450933450221025</v>
+        <v>0.0744073201417053</v>
       </c>
     </row>
     <row r="14">
@@ -1446,19 +1446,19 @@
         <v>99804</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>92456</v>
+        <v>93075</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>103370</v>
+        <v>102660</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9562427474424695</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8858388160241599</v>
+        <v>0.8917695347587101</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9904126419567139</v>
+        <v>0.9836060222257972</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>132</v>
@@ -1467,19 +1467,19 @@
         <v>127215</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>119844</v>
+        <v>120737</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>131658</v>
+        <v>132318</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.936437369314419</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8821814929331725</v>
+        <v>0.8887503470933175</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.969140550678175</v>
+        <v>0.9740040168881138</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>230</v>
@@ -1488,19 +1488,19 @@
         <v>227019</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>218617</v>
+        <v>215883</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>233250</v>
+        <v>232716</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9450424001923613</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9100672355747549</v>
+        <v>0.8986834804827991</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9709818386889711</v>
+        <v>0.9687585364358318</v>
       </c>
     </row>
     <row r="15">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4587</v>
+        <v>5231</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006110045474705776</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03342755153683204</v>
+        <v>0.0381205609407777</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1613,19 +1613,19 @@
         <v>3188</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8692</v>
+        <v>8840</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01526851641701609</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0</v>
+        <v>0.004293278962267415</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04163355940150167</v>
+        <v>0.04234285154647122</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1634,19 +1634,19 @@
         <v>4026</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1132</v>
+        <v>891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9713</v>
+        <v>9167</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01163637648030618</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003272162075331084</v>
+        <v>0.002575056973883203</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0280739556381801</v>
+        <v>0.02649342510720627</v>
       </c>
     </row>
     <row r="17">
@@ -1663,19 +1663,19 @@
         <v>6637</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2520</v>
+        <v>3259</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12569</v>
+        <v>11798</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04836844862678575</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01836762014679395</v>
+        <v>0.02375402405745999</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09159652639978634</v>
+        <v>0.08598316851917351</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1684,19 +1684,19 @@
         <v>6808</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2340</v>
+        <v>2254</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14073</v>
+        <v>14284</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03260658402992047</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01120589152379584</v>
+        <v>0.01079824956161497</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06740541383243535</v>
+        <v>0.06841926548179561</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1705,19 +1705,19 @@
         <v>13445</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7686</v>
+        <v>7882</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22789</v>
+        <v>21529</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03885755083867104</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02221279653893112</v>
+        <v>0.02278152089079243</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06586599439272697</v>
+        <v>0.0622245120571366</v>
       </c>
     </row>
     <row r="18">
@@ -1734,19 +1734,19 @@
         <v>129742</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>123876</v>
+        <v>123913</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>133918</v>
+        <v>133180</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9455215058985085</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9027718024578817</v>
+        <v>0.9030441598844346</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9759602629754059</v>
+        <v>0.9705772883069345</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>191</v>
@@ -1755,19 +1755,19 @@
         <v>198782</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>191118</v>
+        <v>190250</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>204207</v>
+        <v>204184</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9521248995530635</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9154157501014702</v>
+        <v>0.9112598660465565</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9781120283700517</v>
+        <v>0.9780018694664759</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>338</v>
@@ -1776,19 +1776,19 @@
         <v>328524</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>319552</v>
+        <v>319327</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>335957</v>
+        <v>335330</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9495060726810228</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9235751874419812</v>
+        <v>0.9229228505899082</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9709880970025687</v>
+        <v>0.9691757299839546</v>
       </c>
     </row>
     <row r="19">
@@ -1880,19 +1880,19 @@
         <v>3576</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10515</v>
+        <v>10348</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007115938794852052</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001672548068622642</v>
+        <v>0.001699097427346487</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02092766777586608</v>
+        <v>0.02059363973757332</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -1901,19 +1901,19 @@
         <v>15947</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9253</v>
+        <v>8915</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25432</v>
+        <v>25339</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02356093782705999</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01367027470410609</v>
+        <v>0.01317119300147788</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03757522222768977</v>
+        <v>0.0374369088795868</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -1922,19 +1922,19 @@
         <v>19523</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11724</v>
+        <v>12169</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>29659</v>
+        <v>32140</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01655424156978161</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009941506078180212</v>
+        <v>0.01031846404741399</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02514907084578763</v>
+        <v>0.02725322071659373</v>
       </c>
     </row>
     <row r="21">
@@ -1951,19 +1951,19 @@
         <v>28190</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20189</v>
+        <v>20458</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38812</v>
+        <v>39847</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0561033340492853</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0401794069442078</v>
+        <v>0.04071554252230635</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07724377689418244</v>
+        <v>0.07930196821584165</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>24</v>
@@ -1972,19 +1972,19 @@
         <v>27043</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18135</v>
+        <v>18609</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>39317</v>
+        <v>39299</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03995466237658968</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02679323227797281</v>
+        <v>0.02749315154752066</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05808946410527547</v>
+        <v>0.05806207022899591</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>55</v>
@@ -1993,19 +1993,19 @@
         <v>55233</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>41223</v>
+        <v>42359</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>71016</v>
+        <v>70845</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04683510287691984</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03495559452099491</v>
+        <v>0.03591868685787242</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0602180658163561</v>
+        <v>0.06007314849879552</v>
       </c>
     </row>
     <row r="22">
@@ -2022,19 +2022,19 @@
         <v>470700</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>458656</v>
+        <v>457728</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>479617</v>
+        <v>479103</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9367807271558627</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9128107819964044</v>
+        <v>0.9109640188758218</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9545263464192891</v>
+        <v>0.953502351776669</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>622</v>
@@ -2043,19 +2043,19 @@
         <v>633852</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>618507</v>
+        <v>617242</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>645376</v>
+        <v>645162</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9364843997963503</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9138128138687223</v>
+        <v>0.9119447086292392</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9535098999452636</v>
+        <v>0.9531949834858701</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1111</v>
@@ -2064,19 +2064,19 @@
         <v>1104552</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1086092</v>
+        <v>1087961</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1120524</v>
+        <v>1119725</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9366106555532986</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9209569670605064</v>
+        <v>0.9225414906257572</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9501540020787702</v>
+        <v>0.9494763924241172</v>
       </c>
     </row>
     <row r="23">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7429</v>
+        <v>6916</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01449121452898181</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05323467107701572</v>
+        <v>0.04956080273404218</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2429,19 +2429,19 @@
         <v>7420</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3174</v>
+        <v>3115</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15311</v>
+        <v>14358</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04448652385467302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01903220227854287</v>
+        <v>0.01867531236602507</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09179766154049214</v>
+        <v>0.08608422685512533</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2450,19 +2450,19 @@
         <v>9442</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5004</v>
+        <v>5036</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17440</v>
+        <v>17454</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03082246395260056</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01633406555598714</v>
+        <v>0.01643893688519861</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05692978912222192</v>
+        <v>0.0569775338178232</v>
       </c>
     </row>
     <row r="5">
@@ -2479,19 +2479,19 @@
         <v>8672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3263</v>
+        <v>3243</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17576</v>
+        <v>17749</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06214201023705605</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02338324600644379</v>
+        <v>0.02324069472415248</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1259506010667301</v>
+        <v>0.1271896043435755</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -2500,19 +2500,19 @@
         <v>8552</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3507</v>
+        <v>4055</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16228</v>
+        <v>16043</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05127612595371869</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02102760962285037</v>
+        <v>0.02431329485963248</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09729916767574416</v>
+        <v>0.09618675259286991</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -2521,19 +2521,19 @@
         <v>17224</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10447</v>
+        <v>9783</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28577</v>
+        <v>27842</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05622596968176259</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03410236525535736</v>
+        <v>0.03193580412262932</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09328616892173119</v>
+        <v>0.09088717829551818</v>
       </c>
     </row>
     <row r="6">
@@ -2550,19 +2550,19 @@
         <v>128853</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>120562</v>
+        <v>119676</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>135211</v>
+        <v>134400</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9233667752339622</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8639516532832793</v>
+        <v>0.8576037933267331</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9689304923569242</v>
+        <v>0.9631195442646261</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>142</v>
@@ -2571,19 +2571,19 @@
         <v>150815</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>140958</v>
+        <v>141566</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>157557</v>
+        <v>157309</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9042373501916083</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8451390368434262</v>
+        <v>0.8487818912348919</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9446626948690757</v>
+        <v>0.9431745657626494</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>262</v>
@@ -2592,19 +2592,19 @@
         <v>279668</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>266879</v>
+        <v>268675</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>288294</v>
+        <v>288378</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9129515663656368</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8712025008364185</v>
+        <v>0.8770666605216311</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9411102414037896</v>
+        <v>0.9413852272343802</v>
       </c>
     </row>
     <row r="7">
@@ -2696,19 +2696,19 @@
         <v>6400</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2253</v>
+        <v>2215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12822</v>
+        <v>13027</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04132585958291195</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01454765041316824</v>
+        <v>0.01430186703082682</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08278637445923578</v>
+        <v>0.08411357301400124</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -2717,19 +2717,19 @@
         <v>8856</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3450</v>
+        <v>4020</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16537</v>
+        <v>16507</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0462668532313436</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01802300869356013</v>
+        <v>0.02100012440375444</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08638880610332009</v>
+        <v>0.08623412265092247</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -2738,19 +2738,19 @@
         <v>15257</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8887</v>
+        <v>8709</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25755</v>
+        <v>24331</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04405704709193786</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02566257336783837</v>
+        <v>0.02514831101741639</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07437097544351749</v>
+        <v>0.07026143400003801</v>
       </c>
     </row>
     <row r="9">
@@ -2767,19 +2767,19 @@
         <v>8787</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3333</v>
+        <v>3403</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17627</v>
+        <v>17670</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05673215975795391</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02151855379201502</v>
+        <v>0.02197137718548477</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1138094917326193</v>
+        <v>0.1140886767071909</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -2788,19 +2788,19 @@
         <v>18934</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11361</v>
+        <v>11082</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>28504</v>
+        <v>27802</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09891567186730181</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05935084416186336</v>
+        <v>0.05789139979705881</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1489057592593014</v>
+        <v>0.1452392487372072</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>24</v>
@@ -2809,19 +2809,19 @@
         <v>27721</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>17969</v>
+        <v>18235</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>39202</v>
+        <v>38988</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08004955086540129</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05188761236388861</v>
+        <v>0.05265569570422858</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1132043181004362</v>
+        <v>0.1125863811377114</v>
       </c>
     </row>
     <row r="10">
@@ -2838,19 +2838,19 @@
         <v>139691</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>130783</v>
+        <v>130602</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>146314</v>
+        <v>146517</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9019419806591341</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8444228382154275</v>
+        <v>0.84325511649558</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.944705231655215</v>
+        <v>0.9460165271346969</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>152</v>
@@ -2859,19 +2859,19 @@
         <v>163629</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>151431</v>
+        <v>153942</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>172625</v>
+        <v>173795</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8548174749013546</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7910913609999204</v>
+        <v>0.80420812244218</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9018108203851547</v>
+        <v>0.9079257949767294</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>277</v>
@@ -2880,19 +2880,19 @@
         <v>303320</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>289370</v>
+        <v>290597</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>315133</v>
+        <v>315060</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8758934020426609</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8356091921188857</v>
+        <v>0.8391533175044725</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9100065045232619</v>
+        <v>0.9097955130134247</v>
       </c>
     </row>
     <row r="11">
@@ -2984,19 +2984,19 @@
         <v>4378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11669</v>
+        <v>12249</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04225486812988093</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01024644035143358</v>
+        <v>0.01020211136273751</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1126391363371994</v>
+        <v>0.1182327662080101</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -3005,19 +3005,19 @@
         <v>8786</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3642</v>
+        <v>3489</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17135</v>
+        <v>17720</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06230120718924993</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02582764552035311</v>
+        <v>0.02473813198233773</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1215062966730132</v>
+        <v>0.1256599352611476</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -3026,19 +3026,19 @@
         <v>13163</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6485</v>
+        <v>6602</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24476</v>
+        <v>23876</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05381133973613897</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02651160952393176</v>
+        <v>0.02698868854841274</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.100059121094996</v>
+        <v>0.09760675799213808</v>
       </c>
     </row>
     <row r="13">
@@ -3055,19 +3055,19 @@
         <v>8290</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3977</v>
+        <v>3275</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15209</v>
+        <v>15224</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08001927089130416</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03838520867186179</v>
+        <v>0.03160835347778342</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1468057307469143</v>
+        <v>0.1469548167177818</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -3076,19 +3076,19 @@
         <v>11030</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6202</v>
+        <v>6189</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19194</v>
+        <v>18840</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07821350998143486</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04398044746717509</v>
+        <v>0.04388707390623767</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1361107134676661</v>
+        <v>0.1335958109127558</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -3097,19 +3097,19 @@
         <v>19319</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11967</v>
+        <v>11908</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29662</v>
+        <v>28863</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07897827160356428</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04892327755477137</v>
+        <v>0.04867899363240766</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1212609405338932</v>
+        <v>0.1179924203793957</v>
       </c>
     </row>
     <row r="14">
@@ -3126,19 +3126,19 @@
         <v>90931</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>81395</v>
+        <v>82304</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>96697</v>
+        <v>97220</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8777258609788149</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7856781221591194</v>
+        <v>0.7944547825077389</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9333896713974527</v>
+        <v>0.9384349826175762</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>112</v>
@@ -3147,19 +3147,19 @@
         <v>121204</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>111301</v>
+        <v>111294</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>128810</v>
+        <v>128997</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8594852828293152</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7892620653608036</v>
+        <v>0.7892096518386017</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9134236421988366</v>
+        <v>0.9147497608914902</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>191</v>
@@ -3168,19 +3168,19 @@
         <v>212134</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>199035</v>
+        <v>199878</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>222243</v>
+        <v>222267</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8672103886602968</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8136611357412371</v>
+        <v>0.8171058983669771</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.908535556358798</v>
+        <v>0.9086320658352228</v>
       </c>
     </row>
     <row r="15">
@@ -3272,19 +3272,19 @@
         <v>4038</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1056</v>
+        <v>997</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10264</v>
+        <v>10238</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02498828807470336</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006533483463054695</v>
+        <v>0.006166925877391261</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06351112056513339</v>
+        <v>0.06334701963482162</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -3293,19 +3293,19 @@
         <v>7315</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3079</v>
+        <v>3048</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13885</v>
+        <v>13835</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03001168554583172</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01263262493876096</v>
+        <v>0.0125039066983374</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05696279932303944</v>
+        <v>0.05675882607391309</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3314,19 +3314,19 @@
         <v>11354</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6055</v>
+        <v>6045</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19101</v>
+        <v>20323</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02800891741268548</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01493690640878209</v>
+        <v>0.01491377050596056</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04712166009502262</v>
+        <v>0.05013475612324497</v>
       </c>
     </row>
     <row r="17">
@@ -3343,19 +3343,19 @@
         <v>11411</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5254</v>
+        <v>5288</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21245</v>
+        <v>22051</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0706044883435358</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03251211002768751</v>
+        <v>0.03272258517150181</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1314578714790489</v>
+        <v>0.1364438204142045</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -3364,19 +3364,19 @@
         <v>12571</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7218</v>
+        <v>6642</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21503</v>
+        <v>20756</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0515741772890172</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02961385479884501</v>
+        <v>0.0272487861699215</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08821788472313831</v>
+        <v>0.08515370475978219</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -3385,19 +3385,19 @@
         <v>23982</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14816</v>
+        <v>14719</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34887</v>
+        <v>35546</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0591613333448348</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03655050465256263</v>
+        <v>0.03631078986189763</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08606274051420147</v>
+        <v>0.08769017875869442</v>
       </c>
     </row>
     <row r="18">
@@ -3414,19 +3414,19 @@
         <v>146164</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>135649</v>
+        <v>135400</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>152513</v>
+        <v>152717</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9044072235817608</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8393464838049168</v>
+        <v>0.8378028538718452</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9436935195506533</v>
+        <v>0.9449571276831232</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>212</v>
@@ -3435,19 +3435,19 @@
         <v>223863</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>213776</v>
+        <v>213879</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>231418</v>
+        <v>231209</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9184141371651511</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8770288235025205</v>
+        <v>0.8774525590240464</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9494092088024898</v>
+        <v>0.9485506473411316</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>346</v>
@@ -3456,19 +3456,19 @@
         <v>370027</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>357483</v>
+        <v>356534</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>380878</v>
+        <v>380840</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9128297492424797</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8818836609081895</v>
+        <v>0.8795422642695482</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.939598508760172</v>
+        <v>0.9395042435105744</v>
       </c>
     </row>
     <row r="19">
@@ -3560,19 +3560,19 @@
         <v>16839</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10318</v>
+        <v>9982</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28768</v>
+        <v>28577</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03008852188310793</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01843682097584751</v>
+        <v>0.01783689581927441</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0514048807776218</v>
+        <v>0.05106426260157142</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -3581,19 +3581,19 @@
         <v>32377</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21712</v>
+        <v>23043</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>45824</v>
+        <v>45013</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04357768312548357</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02922287547570205</v>
+        <v>0.0310147081055527</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0616768328174659</v>
+        <v>0.0605844147861543</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>44</v>
@@ -3602,19 +3602,19 @@
         <v>49216</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>36400</v>
+        <v>36879</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>65355</v>
+        <v>66123</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.037782377985343</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02794409631425211</v>
+        <v>0.02831176101754642</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05017258488872389</v>
+        <v>0.05076214936859962</v>
       </c>
     </row>
     <row r="21">
@@ -3631,19 +3631,19 @@
         <v>37159</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25479</v>
+        <v>25458</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52803</v>
+        <v>53171</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0663980413942242</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04552825736442501</v>
+        <v>0.04549022809065446</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09435240129601363</v>
+        <v>0.09501068454393155</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>47</v>
@@ -3652,19 +3652,19 @@
         <v>51087</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>38937</v>
+        <v>36850</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>67073</v>
+        <v>67063</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06876054712910422</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05240655693638276</v>
+        <v>0.04959744354899958</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0902758258425497</v>
+        <v>0.09026329430920445</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>78</v>
@@ -3673,19 +3673,19 @@
         <v>88246</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>70040</v>
+        <v>70478</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>108099</v>
+        <v>106655</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06774555135709501</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05376919942716892</v>
+        <v>0.05410487814552413</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08298603563856241</v>
+        <v>0.0818779806716598</v>
       </c>
     </row>
     <row r="22">
@@ -3702,19 +3702,19 @@
         <v>505640</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>487773</v>
+        <v>487365</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>519302</v>
+        <v>519776</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9035134367226678</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8715881168514787</v>
+        <v>0.8708596634090122</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9279264542289305</v>
+        <v>0.9287743438234454</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>618</v>
@@ -3723,19 +3723,19 @@
         <v>659511</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>639492</v>
+        <v>640420</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>676385</v>
+        <v>676420</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8876617697454122</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8607184252732117</v>
+        <v>0.8619668703187094</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9103738134257569</v>
+        <v>0.9104203793148047</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1076</v>
@@ -3744,19 +3744,19 @@
         <v>1165150</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1138423</v>
+        <v>1143677</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1187000</v>
+        <v>1188050</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.894472070657562</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8739537377143707</v>
+        <v>0.8779871212208058</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9112458313969892</v>
+        <v>0.9120517692450885</v>
       </c>
     </row>
     <row r="23">
@@ -4088,19 +4088,19 @@
         <v>4159</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1577</v>
+        <v>1591</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9560</v>
+        <v>9485</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03041410828841686</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01152994232048097</v>
+        <v>0.01163286274457321</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06991502225220329</v>
+        <v>0.06936783184741323</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7535</v>
+        <v>8357</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01383515368999795</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04345448018470209</v>
+        <v>0.04819554998252586</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -4130,19 +4130,19 @@
         <v>6558</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2796</v>
+        <v>2980</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12526</v>
+        <v>12952</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02114481214559645</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009016868528063394</v>
+        <v>0.009610631648895892</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04039159036174499</v>
+        <v>0.04176498188099617</v>
       </c>
     </row>
     <row r="5">
@@ -4159,19 +4159,19 @@
         <v>5145</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2404</v>
+        <v>1784</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10447</v>
+        <v>10999</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03762943425025644</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01758265075842299</v>
+        <v>0.01304863305948829</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07640139637518548</v>
+        <v>0.08044143448515338</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -4180,19 +4180,19 @@
         <v>9315</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4339</v>
+        <v>4246</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16864</v>
+        <v>16807</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05372449651820003</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02502580194647109</v>
+        <v>0.02448819034762311</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09725840755422197</v>
+        <v>0.0969295061542229</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -4201,19 +4201,19 @@
         <v>14461</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7895</v>
+        <v>7964</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23646</v>
+        <v>22938</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04662818611443802</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02545710318234248</v>
+        <v>0.0256811620935099</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07624766617853344</v>
+        <v>0.07396336469643559</v>
       </c>
     </row>
     <row r="6">
@@ -4230,19 +4230,19 @@
         <v>127430</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>121197</v>
+        <v>121125</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>131882</v>
+        <v>131855</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9319564574613267</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8863702548654895</v>
+        <v>0.8858469780437236</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9645148508060927</v>
+        <v>0.9643187353903779</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>147</v>
@@ -4251,19 +4251,19 @@
         <v>161677</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>152858</v>
+        <v>153553</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>167479</v>
+        <v>167421</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.932440349791802</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8815821634212341</v>
+        <v>0.8855856016673038</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9659035601771413</v>
+        <v>0.9655699498522581</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>284</v>
@@ -4272,19 +4272,19 @@
         <v>289107</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>278947</v>
+        <v>279467</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>297424</v>
+        <v>296705</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9322270017399655</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8994667948349701</v>
+        <v>0.9011438219897862</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9590468554083056</v>
+        <v>0.9567258999644686</v>
       </c>
     </row>
     <row r="7">
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5438</v>
+        <v>5559</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01007743521059143</v>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03296774256638738</v>
+        <v>0.03370476843777691</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -4397,19 +4397,19 @@
         <v>5363</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1268</v>
+        <v>1294</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14814</v>
+        <v>15123</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02447178572106918</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005784325935006836</v>
+        <v>0.00590307351073131</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06759551446662154</v>
+        <v>0.06900419647952181</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -4418,19 +4418,19 @@
         <v>7025</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2163</v>
+        <v>2089</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15879</v>
+        <v>16421</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01829060487148032</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005630801102460147</v>
+        <v>0.00543788352473059</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04133999434776722</v>
+        <v>0.04275110436122437</v>
       </c>
     </row>
     <row r="9">
@@ -4447,19 +4447,19 @@
         <v>5064</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2454</v>
+        <v>2408</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11093</v>
+        <v>11056</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03069975816557665</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01488022032148057</v>
+        <v>0.01460028253427805</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06725516831063734</v>
+        <v>0.06703261275176677</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -4468,19 +4468,19 @@
         <v>9277</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4225</v>
+        <v>4472</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17775</v>
+        <v>17202</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04232813603984742</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01927581227693892</v>
+        <v>0.02040479411269492</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08110620905951979</v>
+        <v>0.07849049548619251</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -4489,19 +4489,19 @@
         <v>14340</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8541</v>
+        <v>8122</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24421</v>
+        <v>23040</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03733471125309477</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02223528959741791</v>
+        <v>0.02114521784729466</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06357985638670123</v>
+        <v>0.0599838611169789</v>
       </c>
     </row>
     <row r="10">
@@ -4518,19 +4518,19 @@
         <v>158215</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>151546</v>
+        <v>151339</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>161606</v>
+        <v>161608</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.959222806623832</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9187871669777765</v>
+        <v>0.9175319577720201</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9797804342611544</v>
+        <v>0.9797943022902291</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>171</v>
@@ -4539,19 +4539,19 @@
         <v>204523</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>193361</v>
+        <v>193390</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>211397</v>
+        <v>210895</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9332000782390834</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8822696137996631</v>
+        <v>0.8824035092221458</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9645668088583095</v>
+        <v>0.9622750757744608</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>338</v>
@@ -4560,19 +4560,19 @@
         <v>362738</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>349986</v>
+        <v>351713</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>370755</v>
+        <v>371353</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9443746838754249</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9111756846937863</v>
+        <v>0.9156702967006087</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9652456776029987</v>
+        <v>0.9668031110846228</v>
       </c>
     </row>
     <row r="11">
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3957</v>
+        <v>4087</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006889421930999883</v>
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03439885422349555</v>
+        <v>0.03552437724599945</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -4685,19 +4685,19 @@
         <v>3656</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1021</v>
+        <v>1032</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9777</v>
+        <v>9448</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02563614143841433</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0071570179619909</v>
+        <v>0.007238624785202577</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06856405760475165</v>
+        <v>0.06625991591719149</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -4706,19 +4706,19 @@
         <v>4448</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1287</v>
+        <v>1268</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11586</v>
+        <v>11085</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01726552889357217</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004993784227020532</v>
+        <v>0.004921921312100118</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04497049865953757</v>
+        <v>0.04302681980368034</v>
       </c>
     </row>
     <row r="13">
@@ -4735,19 +4735,19 @@
         <v>5949</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2433</v>
+        <v>2476</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11775</v>
+        <v>11709</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0517122170457103</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02115108052370461</v>
+        <v>0.02152491431152058</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1023592268179424</v>
+        <v>0.1017894937620201</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -4756,19 +4756,19 @@
         <v>8910</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3898</v>
+        <v>3868</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17087</v>
+        <v>16778</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06248593465577869</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02733446791266211</v>
+        <v>0.02712467199727871</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.119825418004479</v>
+        <v>0.1176585210826139</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -4777,19 +4777,19 @@
         <v>14859</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8130</v>
+        <v>8149</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24261</v>
+        <v>24578</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05767535349005753</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03155712391335265</v>
+        <v>0.03163208218280253</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09416999600817477</v>
+        <v>0.09539908318398042</v>
       </c>
     </row>
     <row r="14">
@@ -4806,19 +4806,19 @@
         <v>108294</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>102735</v>
+        <v>102314</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>112239</v>
+        <v>112223</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9413983610232898</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.893078573652746</v>
+        <v>0.8894131782265359</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9756909849941225</v>
+        <v>0.9755587911094248</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>108</v>
@@ -4827,19 +4827,19 @@
         <v>130030</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>120001</v>
+        <v>120665</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>136144</v>
+        <v>136141</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.911877923905807</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8415424236154985</v>
+        <v>0.8461992099084988</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9547530161654942</v>
+        <v>0.9547309871572925</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>215</v>
@@ -4848,19 +4848,19 @@
         <v>238324</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>227660</v>
+        <v>227860</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>246324</v>
+        <v>246126</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9250591176163703</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.883665222635217</v>
+        <v>0.8844413672604122</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9561112633213908</v>
+        <v>0.955344909296982</v>
       </c>
     </row>
     <row r="15">
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8616</v>
+        <v>7539</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01015963839050409</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0354884980441886</v>
+        <v>0.03105201709166501</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8652</v>
+        <v>8409</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005909372866214499</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02072922983701643</v>
+        <v>0.02014541612545519</v>
       </c>
     </row>
     <row r="17">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7964</v>
+        <v>7933</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01170188674686295</v>
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04560595691575087</v>
+        <v>0.04543146211350756</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -5036,19 +5036,19 @@
         <v>13044</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5385</v>
+        <v>6099</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24401</v>
+        <v>24637</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05372865822831398</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02218234289729709</v>
+        <v>0.02512315527242924</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1005081920516074</v>
+        <v>0.1014779494227421</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -5057,19 +5057,19 @@
         <v>15088</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7193</v>
+        <v>7479</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26899</v>
+        <v>27130</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03614683778756251</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01723213321240436</v>
+        <v>0.01791809809475199</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06444496870996916</v>
+        <v>0.06499819696478532</v>
       </c>
     </row>
     <row r="18">
@@ -5086,7 +5086,7 @@
         <v>172575</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>166654</v>
+        <v>166685</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>174618</v>
@@ -5095,7 +5095,7 @@
         <v>0.9882981132531371</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9543940430842489</v>
+        <v>0.9545685378864923</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -5107,19 +5107,19 @@
         <v>227270</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>214017</v>
+        <v>214358</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>235351</v>
+        <v>234663</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9361117033811819</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8815208932675027</v>
+        <v>0.8829277706565153</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9693943573483371</v>
+        <v>0.9665631042924477</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>376</v>
@@ -5128,19 +5128,19 @@
         <v>399846</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>388763</v>
+        <v>387113</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>408760</v>
+        <v>407990</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.957943789346223</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9313920121808658</v>
+        <v>0.9274394919574608</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9793000679582471</v>
+        <v>0.9774558324221357</v>
       </c>
     </row>
     <row r="19">
@@ -5232,19 +5232,19 @@
         <v>6613</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3234</v>
+        <v>3203</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12021</v>
+        <v>13040</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01118388622846911</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005468254944742038</v>
+        <v>0.005416284807121394</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02032863556362116</v>
+        <v>0.02205160298744004</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -5253,19 +5253,19 @@
         <v>13884</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6955</v>
+        <v>7280</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24693</v>
+        <v>26013</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01784782834895922</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008940272718634564</v>
+        <v>0.009358517798786789</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03174221929106872</v>
+        <v>0.03343917953314642</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -5274,19 +5274,19 @@
         <v>20498</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12220</v>
+        <v>12249</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>31778</v>
+        <v>31752</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01496993924234497</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008924415314121451</v>
+        <v>0.008945577389983278</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02320836304108831</v>
+        <v>0.02318918573691664</v>
       </c>
     </row>
     <row r="21">
@@ -5303,19 +5303,19 @@
         <v>18201</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11266</v>
+        <v>10929</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>26265</v>
+        <v>26479</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03077977113343459</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01905200172118266</v>
+        <v>0.01848157409535177</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04441772988693886</v>
+        <v>0.04477834645811667</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>31</v>
@@ -5324,19 +5324,19 @@
         <v>40547</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>27400</v>
+        <v>26966</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>56051</v>
+        <v>56478</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05212113370065159</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03522180008001114</v>
+        <v>0.03466397537730376</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07205129900428232</v>
+        <v>0.07259975392921073</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>51</v>
@@ -5345,19 +5345,19 @@
         <v>58748</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>42940</v>
+        <v>43730</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>76834</v>
+        <v>76591</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04290465586485943</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03136030690703977</v>
+        <v>0.03193662683432031</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05611356907811602</v>
+        <v>0.05593591759644628</v>
       </c>
     </row>
     <row r="22">
@@ -5374,19 +5374,19 @@
         <v>566514</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>557096</v>
+        <v>555653</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>574492</v>
+        <v>574168</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9580363426380963</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9421091712667508</v>
+        <v>0.9396695154235284</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9715290721533963</v>
+        <v>0.9709800627794227</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>614</v>
@@ -5395,19 +5395,19 @@
         <v>723500</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>706029</v>
+        <v>704444</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>739037</v>
+        <v>737223</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9300310379503892</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9075723961090284</v>
+        <v>0.9055350982070829</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9500028249116796</v>
+        <v>0.9476716181397319</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1213</v>
@@ -5416,19 +5416,19 @@
         <v>1290014</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1269536</v>
+        <v>1269943</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1306719</v>
+        <v>1307436</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9421254048927956</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.927170303085781</v>
+        <v>0.927467557816513</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.95432590658793</v>
+        <v>0.9548495474674948</v>
       </c>
     </row>
     <row r="23">
@@ -5760,19 +5760,19 @@
         <v>2103</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5482</v>
+        <v>5497</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01287615803933344</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003242715922695704</v>
+        <v>0.003325036123486327</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03356899475128552</v>
+        <v>0.03365604514422348</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -5781,19 +5781,19 @@
         <v>6847</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3979</v>
+        <v>3739</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11037</v>
+        <v>11224</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03584248273847865</v>
+        <v>0.03584248273847864</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02083157788301054</v>
+        <v>0.01957163380413892</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05777829275863278</v>
+        <v>0.0587531119399154</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -5802,19 +5802,19 @@
         <v>8950</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5333</v>
+        <v>5583</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13527</v>
+        <v>13828</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02525747086831484</v>
+        <v>0.02525747086831485</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0150499601871285</v>
+        <v>0.01575522823408497</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03817494661494336</v>
+        <v>0.03902325695881693</v>
       </c>
     </row>
     <row r="5">
@@ -5831,19 +5831,19 @@
         <v>10161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6106</v>
+        <v>6165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16793</v>
+        <v>16469</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06221517702264028</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03738950205648872</v>
+        <v>0.03774906507698164</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.102823685993919</v>
+        <v>0.1008427758863879</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -5852,19 +5852,19 @@
         <v>13588</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9592</v>
+        <v>9481</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19021</v>
+        <v>19483</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.07112918405614752</v>
+        <v>0.07112918405614753</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05021431085236879</v>
+        <v>0.04963017267705488</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09957020970058622</v>
+        <v>0.101987700540644</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -5873,19 +5873,19 @@
         <v>23748</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17823</v>
+        <v>17337</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31624</v>
+        <v>31656</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06702078310403919</v>
+        <v>0.06702078310403918</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.050297797520941</v>
+        <v>0.04892739794634431</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08924826457086499</v>
+        <v>0.08933660955981733</v>
       </c>
     </row>
     <row r="6">
@@ -5905,16 +5905,16 @@
         <v>144256</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>155439</v>
+        <v>155477</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9249086649380261</v>
+        <v>0.9249086649380264</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8833062834203107</v>
+        <v>0.8833051060345884</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9517806140868765</v>
+        <v>0.9520125826932518</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>396</v>
@@ -5923,19 +5923,19 @@
         <v>170594</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>164453</v>
+        <v>164235</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>175871</v>
+        <v>175995</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8930283332053738</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8608811979378078</v>
+        <v>0.8597368665364635</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9206500899979816</v>
+        <v>0.9212997871185207</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>629</v>
@@ -5944,19 +5944,19 @@
         <v>321645</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>313171</v>
+        <v>313253</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>329242</v>
+        <v>329203</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9077217460276461</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8838072847562002</v>
+        <v>0.8840387610345948</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9291629075080985</v>
+        <v>0.9290520928093746</v>
       </c>
     </row>
     <row r="7">
@@ -6048,19 +6048,19 @@
         <v>2556</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6344</v>
+        <v>6173</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01434180933540703</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003407781231356298</v>
+        <v>0.003349304780574848</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03559863412645416</v>
+        <v>0.03464050625522183</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -6069,19 +6069,19 @@
         <v>8386</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4900</v>
+        <v>4824</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13975</v>
+        <v>13769</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03470131995313502</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02027429355718054</v>
+        <v>0.01995979719771893</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05783004356953384</v>
+        <v>0.05697541004851773</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -6090,19 +6090,19 @@
         <v>10942</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6942</v>
+        <v>7015</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17667</v>
+        <v>17055</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02606012595007738</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01653375368003378</v>
+        <v>0.01670691633986176</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04207663394138438</v>
+        <v>0.04062017741607082</v>
       </c>
     </row>
     <row r="9">
@@ -6119,19 +6119,19 @@
         <v>5953</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3261</v>
+        <v>3207</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10759</v>
+        <v>10293</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.03340428362453487</v>
+        <v>0.03340428362453486</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01830075983290703</v>
+        <v>0.01799430422771956</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06037316248316178</v>
+        <v>0.05775877093037896</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>34</v>
@@ -6140,19 +6140,19 @@
         <v>17940</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12827</v>
+        <v>13126</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24785</v>
+        <v>25039</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07423673966007306</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0530788861827715</v>
+        <v>0.05431512944181052</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1025593829422473</v>
+        <v>0.1036114063995551</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>45</v>
@@ -6161,19 +6161,19 @@
         <v>23893</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>17599</v>
+        <v>17334</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>32259</v>
+        <v>31260</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.05690620648325043</v>
+        <v>0.05690620648325045</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0419145923571179</v>
+        <v>0.04128560564822559</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07683261608381758</v>
+        <v>0.07445282334421362</v>
       </c>
     </row>
     <row r="10">
@@ -6190,19 +6190,19 @@
         <v>169695</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>164242</v>
+        <v>164340</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>172964</v>
+        <v>173302</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.952253907040058</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9216526943621175</v>
+        <v>0.9222015154891959</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.970597779194082</v>
+        <v>0.9724916939144937</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>398</v>
@@ -6211,19 +6211,19 @@
         <v>215336</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>208080</v>
+        <v>207553</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>221099</v>
+        <v>221173</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8910619403867919</v>
+        <v>0.891061940386792</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8610376222591287</v>
+        <v>0.8588564855625933</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9149117747492878</v>
+        <v>0.9152161408288724</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>637</v>
@@ -6232,19 +6232,19 @@
         <v>385031</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>376005</v>
+        <v>375789</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>392647</v>
+        <v>392695</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.917033667566672</v>
+        <v>0.9170336675666724</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8955353482532687</v>
+        <v>0.8950208318659054</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9351713244171238</v>
+        <v>0.9352875081177042</v>
       </c>
     </row>
     <row r="11">
@@ -6349,19 +6349,19 @@
         <v>5205</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2240</v>
+        <v>2408</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11030</v>
+        <v>10227</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0298377099565232</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01284155929370063</v>
+        <v>0.01380140782966901</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06322946700734751</v>
+        <v>0.0586264126721467</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -6370,19 +6370,19 @@
         <v>5205</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2173</v>
+        <v>1943</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10861</v>
+        <v>10660</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01557307826846435</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006500869386308017</v>
+        <v>0.00581408994936828</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03249705071127908</v>
+        <v>0.03189493135751503</v>
       </c>
     </row>
     <row r="13">
@@ -6399,19 +6399,19 @@
         <v>4631</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10128</v>
+        <v>10202</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02898416690628177</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01151066061034991</v>
+        <v>0.01152153965190316</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06338633523675957</v>
+        <v>0.06385055777206687</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -6420,19 +6420,19 @@
         <v>13408</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8774</v>
+        <v>9020</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20043</v>
+        <v>19505</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07686211386684502</v>
+        <v>0.07686211386684504</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05029751525716791</v>
+        <v>0.0517071177806731</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1149011320379291</v>
+        <v>0.1118140822318439</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -6441,19 +6441,19 @@
         <v>18039</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12166</v>
+        <v>12130</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26084</v>
+        <v>26705</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05397291491799806</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03640018275454278</v>
+        <v>0.03629165454662882</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07804188086718898</v>
+        <v>0.07990243998387296</v>
       </c>
     </row>
     <row r="14">
@@ -6470,19 +6470,19 @@
         <v>155154</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>149657</v>
+        <v>149583</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>157946</v>
+        <v>157944</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9710158330937183</v>
+        <v>0.9710158330937181</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9366136647632406</v>
+        <v>0.9361494422279333</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9884893393896501</v>
+        <v>0.9884784603480967</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>258</v>
@@ -6491,19 +6491,19 @@
         <v>155828</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>147909</v>
+        <v>148144</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>161234</v>
+        <v>161283</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8933001761766318</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8479008705485941</v>
+        <v>0.8492509286092185</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9242884896349184</v>
+        <v>0.924570603522329</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>446</v>
@@ -6512,19 +6512,19 @@
         <v>310982</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>302126</v>
+        <v>301845</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>317208</v>
+        <v>317817</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9304540068135375</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9039572696415392</v>
+        <v>0.9031172199939731</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9490818068152421</v>
+        <v>0.9509056132783984</v>
       </c>
     </row>
     <row r="15">
@@ -6616,19 +6616,19 @@
         <v>1792</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4859</v>
+        <v>4858</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008355576746237561</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002658594554033254</v>
+        <v>0.002633464898367109</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02266162480644447</v>
+        <v>0.02265412129459389</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -6637,19 +6637,19 @@
         <v>6039</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3014</v>
+        <v>3188</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11055</v>
+        <v>11723</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02048991716843589</v>
+        <v>0.0204899171684359</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01022606486543549</v>
+        <v>0.01081680008943263</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03750870061182251</v>
+        <v>0.03977681575876761</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -6658,19 +6658,19 @@
         <v>7830</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4346</v>
+        <v>4365</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14080</v>
+        <v>13373</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01537962980501213</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00853571043311435</v>
+        <v>0.008573770855863803</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02765525769433287</v>
+        <v>0.02626671178244204</v>
       </c>
     </row>
     <row r="17">
@@ -6687,19 +6687,19 @@
         <v>2960</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1069</v>
+        <v>1089</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6582</v>
+        <v>6777</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01380539926251624</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004985449075652023</v>
+        <v>0.00508038034027037</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03069582513199761</v>
+        <v>0.03160447748411561</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -6708,19 +6708,19 @@
         <v>10470</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6240</v>
+        <v>6657</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15716</v>
+        <v>16311</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03552503048863401</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02117350466445661</v>
+        <v>0.02258915708513707</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05332598681647106</v>
+        <v>0.05534481226311851</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -6729,19 +6729,19 @@
         <v>13430</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8452</v>
+        <v>8599</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20007</v>
+        <v>19697</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02637796908017012</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01660037043982113</v>
+        <v>0.01688915325210946</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03929469509239558</v>
+        <v>0.03868730394718978</v>
       </c>
     </row>
     <row r="18">
@@ -6758,19 +6758,19 @@
         <v>209669</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>205321</v>
+        <v>205535</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>212172</v>
+        <v>212503</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9778390239912463</v>
+        <v>0.9778390239912461</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9575597853811434</v>
+        <v>0.9585568141369455</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9895113911533826</v>
+        <v>0.9910572914332523</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>494</v>
@@ -6779,19 +6779,19 @@
         <v>278211</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>271610</v>
+        <v>271534</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>283911</v>
+        <v>283650</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9439850523429302</v>
+        <v>0.9439850523429303</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9215882213586457</v>
+        <v>0.921327803777883</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9633234661226637</v>
+        <v>0.9624382991756064</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>812</v>
@@ -6800,19 +6800,19 @@
         <v>487880</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>480019</v>
+        <v>479841</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>493905</v>
+        <v>493872</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9582424011148177</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9428010385581334</v>
+        <v>0.9424528369674043</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9700758778984858</v>
+        <v>0.9700103913560433</v>
       </c>
     </row>
     <row r="19">
@@ -6904,19 +6904,19 @@
         <v>6450</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3218</v>
+        <v>3316</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11608</v>
+        <v>11638</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009012187477957361</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004495634133476078</v>
+        <v>0.004632718713763626</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0162184637504224</v>
+        <v>0.016260868638737</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -6925,19 +6925,19 @@
         <v>26477</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19349</v>
+        <v>19868</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35203</v>
+        <v>35575</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02935809170338933</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02145485559425301</v>
+        <v>0.02202990503015813</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03903406894043372</v>
+        <v>0.03944697959905563</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>60</v>
@@ -6946,19 +6946,19 @@
         <v>32927</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>25024</v>
+        <v>25014</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>42456</v>
+        <v>42168</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02035570448122834</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01547007343790592</v>
+        <v>0.01546418074553443</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02624649810380608</v>
+        <v>0.02606842064230816</v>
       </c>
     </row>
     <row r="21">
@@ -6975,19 +6975,19 @@
         <v>23705</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16364</v>
+        <v>17249</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32954</v>
+        <v>32842</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03312003278339845</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02286327266785962</v>
+        <v>0.02409954844652784</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04604251085895248</v>
+        <v>0.04588686411674744</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>109</v>
@@ -6996,19 +6996,19 @@
         <v>55406</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>45411</v>
+        <v>45943</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>66699</v>
+        <v>66065</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.06143555913192605</v>
+        <v>0.06143555913192603</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05035293093146317</v>
+        <v>0.05094281175773169</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07395754375961555</v>
+        <v>0.07325531334868214</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>146</v>
@@ -7017,19 +7017,19 @@
         <v>79111</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>66433</v>
+        <v>66502</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>93084</v>
+        <v>92198</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04890687867789547</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04106966066622149</v>
+        <v>0.04111196856660391</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05754522946057868</v>
+        <v>0.05699786542446543</v>
       </c>
     </row>
     <row r="22">
@@ -7046,19 +7046,19 @@
         <v>685568</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>675703</v>
+        <v>675881</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>694051</v>
+        <v>693453</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9578677797386441</v>
+        <v>0.957867779738644</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.944084455620497</v>
+        <v>0.9443337702583834</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9697206503566596</v>
+        <v>0.9688851065615242</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1546</v>
@@ -7067,19 +7067,19 @@
         <v>819970</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>806338</v>
+        <v>807682</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>832908</v>
+        <v>832396</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9092063491646847</v>
+        <v>0.9092063491646845</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8940911863479796</v>
+        <v>0.8955818876625008</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9235524762499064</v>
+        <v>0.9229848070839656</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2524</v>
@@ -7088,19 +7088,19 @@
         <v>1505538</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1489183</v>
+        <v>1489710</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1520948</v>
+        <v>1519807</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9307374168408762</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9206268598655238</v>
+        <v>0.9209526191323734</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9402645463781414</v>
+        <v>0.9395589364033093</v>
       </c>
     </row>
     <row r="23">
